--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>98.45</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -790,25 +900,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9579</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1408,4 +1409,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1731,4 +1732,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1740,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,17 +1752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1771,14 +1792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.46</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1787,14 +1830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.31</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1803,14 +1868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.74</v>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1819,13 +1906,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2139,7 +2140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2150,17 +2151,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2170,14 +2191,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.72</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2186,14 +2229,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.46</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2202,14 +2267,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.31</v>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2218,14 +2305,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.74</v>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2234,13 +2343,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2576,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2587,17 +2588,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2607,14 +2628,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.23</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2623,14 +2666,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.72</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2639,14 +2704,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.46</v>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2655,14 +2742,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.31</v>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2671,14 +2780,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.74</v>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2687,13 +2818,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3.23</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.72</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.74</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2059,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +2948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2777,7 +3344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3061,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
+++ b/数据整理/stocks/A股/上证主板/600327-大东方.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.69</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>3.23</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.72</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.74</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2626,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2948,7 +3495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3344,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3626,288 +4173,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4254</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2724</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>